--- a/backend/projects/project-a-123-sunset-blvd/data/17_GENERAL_LEDGER/Opening_Balances_June_2024.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/17_GENERAL_LEDGER/Opening_Balances_June_2024.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,6 @@
       <c r="C5" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,7 +523,6 @@
       <c r="C6" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -537,7 +535,6 @@
           <t>Owner's Capital</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" s="3" t="n">
         <v>100000</v>
       </c>
@@ -553,7 +550,6 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" s="3" t="n">
         <v>5000</v>
       </c>
@@ -582,6 +578,482 @@
       <c r="B12" s="6">
         <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
         <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v>42694</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40163</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v>33189</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29804</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v>38414</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41633</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v>37558</v>
+      </c>
+      <c r="D16" t="n">
+        <v>34068</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C17" t="n">
+        <v>47578</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13386</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C18" t="n">
+        <v>21561</v>
+      </c>
+      <c r="D18" t="n">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C19" t="n">
+        <v>49135</v>
+      </c>
+      <c r="D19" t="n">
+        <v>31837</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C20" t="n">
+        <v>6804</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C21" t="n">
+        <v>42016</v>
+      </c>
+      <c r="D21" t="n">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C22" t="n">
+        <v>29283</v>
+      </c>
+      <c r="D22" t="n">
+        <v>47146</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C23" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21712</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C24" t="n">
+        <v>18296</v>
+      </c>
+      <c r="D24" t="n">
+        <v>30757</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C25" t="n">
+        <v>43512</v>
+      </c>
+      <c r="D25" t="n">
+        <v>38199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C26" t="n">
+        <v>6233</v>
+      </c>
+      <c r="D26" t="n">
+        <v>18546</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C27" t="n">
+        <v>38434</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18299</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C28" t="n">
+        <v>31422</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C29" t="n">
+        <v>2451</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C30" t="n">
+        <v>40250</v>
+      </c>
+      <c r="D30" t="n">
+        <v>39368</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C31" t="n">
+        <v>6577</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14391</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C32" t="n">
+        <v>16521</v>
+      </c>
+      <c r="D32" t="n">
+        <v>19816</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C33" t="n">
+        <v>23823</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C34" t="n">
+        <v>26139</v>
+      </c>
+      <c r="D34" t="n">
+        <v>31840</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C35" t="n">
+        <v>36783</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C36" t="n">
+        <v>23463</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16260</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C37" t="n">
+        <v>9034</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C38" t="n">
+        <v>22922</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10402</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C39" t="n">
+        <v>5994</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40">
+        <f>IF(C10=D10,"✓ BALANCED","✗ OUT OF BALANCE")</f>
+        <v/>
+      </c>
+      <c r="C40" t="n">
+        <v>6471</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1551</v>
       </c>
     </row>
   </sheetData>
